--- a/chatplm/data/chatplm_brain.xlsx
+++ b/chatplm/data/chatplm_brain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyrfrancisco/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE904D6D-ABC7-8B4E-AD51-774FBF10F282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18E5244-83CA-7145-B9F5-22ABFB3C0290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="osds" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="478">
   <si>
     <t>patterns</t>
   </si>
@@ -887,9 +887,6 @@
   </si>
   <si>
     <t>How does PLM define its vision for success?_x000D_</t>
-  </si>
-  <si>
-    <t>Can you summarize the key elements of PLM's vision in a few words?_x000D_</t>
   </si>
   <si>
     <t>In simple terms, what does PLM hope to accomplish through its vision?_x000D_</t>
@@ -1511,6 +1508,25 @@
   </si>
   <si>
     <t>i want to join an organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you summarize the key elements of PLM's vision in a few words?
+</t>
+  </si>
+  <si>
+    <t>plm vision</t>
+  </si>
+  <si>
+    <t>what is plm's vision</t>
+  </si>
+  <si>
+    <t>tell me the vision of plm</t>
+  </si>
+  <si>
+    <t>tell me plm's vision</t>
+  </si>
+  <si>
+    <t>plm mission</t>
   </si>
 </sst>
 </file>
@@ -1831,8 +1847,8 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2248,7 +2264,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2561,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3159,9 +3175,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3321,72 +3339,95 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" ht="13">
+      <c r="A25" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="13">
-      <c r="B25" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13">
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13">
       <c r="B27" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13">
       <c r="B28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13">
       <c r="B29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13">
       <c r="B30" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13">
       <c r="B31" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="13">
-      <c r="B32" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="42">
+      <c r="B32" s="9" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13">
       <c r="B33" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13">
       <c r="B34" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13">
-      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B37" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B38" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B39" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3401,7 +3442,7 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3424,210 +3465,210 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13">
       <c r="B24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13">
       <c r="B25" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13">
       <c r="B26" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13">
       <c r="A27" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13">
       <c r="B28" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13">
       <c r="B29" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13">
       <c r="B30" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13">
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13">
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="13">
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="13">
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="13">
       <c r="B35" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="13">
       <c r="B36" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="13">
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="13">
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="13">
       <c r="B39" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="13">
@@ -3668,143 +3709,143 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="13">
       <c r="B24" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3843,594 +3884,594 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13">
       <c r="B24" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13">
       <c r="B25" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13">
       <c r="B26" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13">
       <c r="A27" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13">
       <c r="B28" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13">
       <c r="B29" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13">
       <c r="B30" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13">
       <c r="B31" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13">
       <c r="B32" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13">
       <c r="B33" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13">
       <c r="B34" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13">
       <c r="B35" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13">
       <c r="B36" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13">
       <c r="B37" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13">
       <c r="B38" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13">
       <c r="B39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13">
       <c r="B40" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13">
       <c r="B41" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13">
       <c r="B42" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13">
       <c r="A43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13">
       <c r="B44" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13">
       <c r="B45" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13">
       <c r="B46" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13">
       <c r="B47" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13">
       <c r="B48" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13">
       <c r="B49" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13">
       <c r="B50" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13">
       <c r="B51" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13">
       <c r="B52" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13">
       <c r="B53" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13">
       <c r="B54" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13">
       <c r="B55" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13">
       <c r="B56" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13">
       <c r="B57" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13">
       <c r="A58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13">
       <c r="B59" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13">
       <c r="B60" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13">
       <c r="B61" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13">
       <c r="B62" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13">
       <c r="B63" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13">
       <c r="B64" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13">
       <c r="B65" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13">
       <c r="B66" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13">
       <c r="B67" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13">
       <c r="B68" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13">
       <c r="B69" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13">
       <c r="B70" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13">
       <c r="A71" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13">
       <c r="B72" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13">
       <c r="B73" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13">
       <c r="B74" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13">
       <c r="B75" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13">
       <c r="B76" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13">
       <c r="B77" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13">
       <c r="B78" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13">
       <c r="B79" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13">
       <c r="B80" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13">
       <c r="B81" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13">
       <c r="B82" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13">
       <c r="B83" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13">
       <c r="B84" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13">
       <c r="B85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13">
       <c r="B86" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13">
       <c r="B87" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13">
       <c r="A88" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13">
       <c r="B89" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13">
       <c r="B90" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13">
       <c r="B91" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13">
       <c r="B92" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
       <c r="B93" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
       <c r="B94" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
       <c r="B95" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
       <c r="B96" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
       <c r="B97" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13">
       <c r="B98" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13">
       <c r="A99" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13">
       <c r="B100" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13">
       <c r="B101" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13">
       <c r="B102" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13">
       <c r="B103" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13">
       <c r="B104" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13">
       <c r="B105" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13">
       <c r="B106" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13">
       <c r="B107" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13">
       <c r="B108" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13">
       <c r="B109" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13">
       <c r="B110" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13">
       <c r="B111" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
